--- a/new.xlsx
+++ b/new.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>8094</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="4" ht="49.5" customHeight="1">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>7540</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" ht="49.5" customHeight="1">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>525</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="6" ht="49.5" customHeight="1">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>4255</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="7" ht="49.5" customHeight="1">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>5070</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="8" ht="49.5" customHeight="1">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>2592</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="9" ht="49.5" customHeight="1">
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>5404</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="10" ht="49.5" customHeight="1">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>8360</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="11" ht="49.5" customHeight="1">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>4179</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="12" ht="49.5" customHeight="1">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>306</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="13" ht="49.5" customHeight="1">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>4588</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="14" ht="49.5" customHeight="1">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>512</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="15" ht="49.5" customHeight="1">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>6440</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="16" ht="49.5" customHeight="1">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1815</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="17" ht="49.5" customHeight="1">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>4380</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="18" ht="49.5" customHeight="1">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>4361</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="19" ht="49.5" customHeight="1">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>2006</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="20" ht="49.5" customHeight="1">
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>6474</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="21" ht="49.5" customHeight="1">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>1674</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="22" ht="49.5" customHeight="1">
@@ -967,819 +967,13 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="23" ht="49.5" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>IN0023</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>项目23</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>描述23</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>106</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="24" ht="49.5" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>IN0024</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>项目24</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>描述24</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>58</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="25" ht="49.5" customHeight="1">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>IN0025</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>项目25</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>描述25</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>8736</v>
-      </c>
-    </row>
-    <row r="26" ht="49.5" customHeight="1">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>IN0026</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>项目26</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>描述26</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="27" ht="49.5" customHeight="1">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>IN0027</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>项目27</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>描述27</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>4752</v>
-      </c>
-    </row>
-    <row r="28" ht="49.5" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>IN0028</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>项目28</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>描述28</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>192</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>6144</v>
-      </c>
-    </row>
-    <row r="29" ht="49.5" customHeight="1">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>IN0029</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>项目29</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>描述29</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>89</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="30" ht="49.5" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>IN0030</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>项目30</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>描述30</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>106</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="31" ht="49.5" customHeight="1">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>IN0031</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>项目31</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>描述31</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>163</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>5868</v>
-      </c>
-    </row>
-    <row r="32" ht="49.5" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>IN0032</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>项目32</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>描述32</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" ht="49.5" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>IN0033</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>项目33</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>描述33</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>71</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="34" ht="49.5" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>IN0034</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>项目34</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>描述34</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="35" ht="49.5" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>IN0035</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>项目35</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>描述35</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>153</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="36" ht="49.5" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>IN0036</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>项目36</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>描述36</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>5421</v>
-      </c>
-    </row>
-    <row r="37" ht="49.5" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>IN0037</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>项目37</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>描述37</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>180</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>6660</v>
-      </c>
-    </row>
-    <row r="38" ht="49.5" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>IN0038</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>项目38</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>描述38</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" ht="49.5" customHeight="1">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>IN0039</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>项目39</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>描述39</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="40" ht="49.5" customHeight="1">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>IN0040</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>项目40</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>描述40</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>95</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="41" ht="49.5" customHeight="1">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>IN0041</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>项目41</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>描述41</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="42" ht="49.5" customHeight="1">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>IN0042</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>项目42</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>描述42</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>5544</v>
-      </c>
-    </row>
-    <row r="43" ht="49.5" customHeight="1">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>IN0043</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>项目43</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>描述43</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>188</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>9024</v>
-      </c>
-    </row>
-    <row r="44" ht="49.5" customHeight="1">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>IN0044</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>项目44</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>描述44</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>125</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>6375</v>
-      </c>
-    </row>
-    <row r="45" ht="49.5" customHeight="1">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>IN0045</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>项目45</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>描述45</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="46" ht="49.5" customHeight="1">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>IN0046</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>项目46</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>描述46</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="47" ht="49.5" customHeight="1">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>IN0047</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>项目47</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>描述47</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="48" ht="49.5" customHeight="1">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>IN0048</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>项目48</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>描述48</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>193</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>6755</v>
-      </c>
-    </row>
-    <row r="49" ht="49.5" customHeight="1">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>IN0049</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>项目49</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>描述49</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>73</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="50" ht="49.5" customHeight="1">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>IN0050</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>项目50</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>描述50</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="51" ht="49.5" customHeight="1">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>IN0051</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>项目51</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>描述51</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>172</v>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="52" ht="49.5" customHeight="1">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>IN0052</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>项目52</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>描述52</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F52" s="3" t="n">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="53" ht="49.5" customHeight="1">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>IN0053</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>项目53</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>描述53</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>1710</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4536</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" ht="49.5" customHeight="1">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1326</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="5" ht="49.5" customHeight="1">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>3927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" ht="49.5" customHeight="1">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>6028</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="7" ht="49.5" customHeight="1">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>4784</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="8" ht="49.5" customHeight="1">
@@ -606,10 +606,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1554</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="9" ht="49.5" customHeight="1">
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1890</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="10" ht="49.5" customHeight="1">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>2405</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="11" ht="49.5" customHeight="1">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>4029</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="12" ht="49.5" customHeight="1">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>5376</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="13" ht="49.5" customHeight="1">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>4092</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="14" ht="49.5" customHeight="1">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>4475</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="15" ht="49.5" customHeight="1">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>2871</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="16" ht="49.5" customHeight="1">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>5940</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="17" ht="49.5" customHeight="1">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>2703</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="18" ht="49.5" customHeight="1">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>7436</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="19" ht="49.5" customHeight="1">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>6726</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="20" ht="49.5" customHeight="1">
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>3645</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="21" ht="49.5" customHeight="1">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>2090</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="22" ht="49.5" customHeight="1">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>1008</v>
+        <v>2511</v>
       </c>
     </row>
   </sheetData>
